--- a/techniqo/data_new_ticker/SUMICHEM.xlsx
+++ b/techniqo/data_new_ticker/SUMICHEM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5991,6 +5991,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>277.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>283.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>276.85</v>
+      </c>
+      <c r="E160" t="n">
+        <v>282.45</v>
+      </c>
+      <c r="F160" t="n">
+        <v>616306</v>
+      </c>
+      <c r="G160" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>291.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>287.25</v>
+      </c>
+      <c r="F161" t="n">
+        <v>911034</v>
+      </c>
+      <c r="G161" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/SUMICHEM.xlsx
+++ b/techniqo/data_new_ticker/SUMICHEM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6041,6 +6041,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>286.95</v>
+      </c>
+      <c r="C162" t="n">
+        <v>290.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>283.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="F162" t="n">
+        <v>343598</v>
+      </c>
+      <c r="G162" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>288.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>309</v>
+      </c>
+      <c r="D163" t="n">
+        <v>287.55</v>
+      </c>
+      <c r="E163" t="n">
+        <v>300</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3026244</v>
+      </c>
+      <c r="G163" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
